--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -828,9 +828,6 @@
   </si>
   <si>
     <t>Z18</t>
-  </si>
-  <si>
-    <t>City Bank</t>
   </si>
   <si>
     <t>Z25</t>
@@ -1942,7 +1939,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H179" sqref="H177:H179"/>
+      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1968,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="40" t="s">
@@ -1979,7 +1976,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44571</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2071,19 +2068,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>7056.76</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>250</v>
@@ -2775,7 +2770,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
@@ -3004,7 +2999,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3020,7 +3015,7 @@
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
@@ -3097,11 +3092,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>42783.6</v>
+        <v>32087.699999999997</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>250</v>
@@ -3882,7 +3877,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -5181,7 +5176,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5581,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6410,7 +6405,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6541,7 +6536,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -7325,7 +7320,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7336,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8821,7 +8816,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -9144,7 +9139,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -11413,19 +11408,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>259</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>20</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>27284.81</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>250</v>
@@ -11677,17 +11670,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>24</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29401.439999999999</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>250</v>
@@ -11810,7 +11805,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12060,7 +12055,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12122,17 +12117,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A103" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>250</v>
@@ -12241,19 +12238,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>20</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>24097.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>250</v>
@@ -14205,7 +14200,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -18939,7 +18934,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19070,7 +19065,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19199,7 +19194,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19210,7 +19205,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19330,7 +19325,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19341,7 +19336,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19472,7 +19467,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19592,7 +19587,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19723,7 +19718,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19852,9 +19847,9 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19985,7 +19980,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20116,7 +20111,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20127,7 +20122,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20247,7 +20242,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20383,11 +20378,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>101222.37</v>
+        <v>85265.54</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,10 +20652,10 @@
       <c r="E179" s="22"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
-      <c r="B180" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C180" s="53"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="53">
+        <v>85000</v>
+      </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>133</v>
@@ -20668,7 +20663,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20678,11 +20673,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>0</v>
+        <v>85000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20732,12 +20727,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="N11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -830,6 +830,9 @@
     <t>Z18</t>
   </si>
   <si>
+    <t>City Bank</t>
+  </si>
+  <si>
     <t>Z25</t>
   </si>
   <si>
@@ -935,7 +938,7 @@
     <t>B62</t>
   </si>
   <si>
-    <t xml:space="preserve">Prithibi Corporation </t>
+    <t>Prithibi Corporation</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
+      <selection pane="bottomRight" activeCell="G182" sqref="F181:G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1968,7 +1971,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="40" t="s">
@@ -1976,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44573</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2070,7 +2073,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
@@ -2999,7 +3002,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3013,17 +3016,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>40</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36888</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -3092,11 +3097,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>32087.699999999997</v>
+        <v>42783.6</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>250</v>
@@ -3877,7 +3882,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -5043,17 +5048,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>23395.72</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>250</v>
@@ -5176,7 +5183,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5576,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6405,7 +6412,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6536,7 +6543,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -7320,7 +7327,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7331,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8816,10 +8823,10 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B68" s="28">
-        <v>5142.21</v>
+        <v>5443.18</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="18">
@@ -9139,7 +9146,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -10362,17 +10369,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A87" s="43" t="s">
         <v>265</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>250</v>
@@ -11280,7 +11289,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>226</v>
       </c>
@@ -11344,7 +11353,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -11670,19 +11679,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>24</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>29401.439999999999</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>250</v>
@@ -11805,7 +11812,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12055,7 +12062,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12117,19 +12124,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>250</v>
@@ -12240,7 +12245,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -14200,7 +14205,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -18934,7 +18939,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19065,7 +19070,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19194,7 +19199,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19205,7 +19210,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19325,7 +19330,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19336,7 +19341,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19467,7 +19472,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19587,7 +19592,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19718,18 +19723,18 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B169" s="28">
-        <v>8134.32</v>
+        <v>8320.15</v>
       </c>
       <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
         <v>0</v>
       </c>
-      <c r="E169" s="39" t="s">
-        <v>200</v>
+      <c r="E169" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19849,7 +19854,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19980,7 +19985,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20111,7 +20116,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20122,7 +20127,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20242,7 +20247,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20377,12 +20382,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C5:C173)</f>
-        <v>74</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>120</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D5:D173)</f>
-        <v>85265.54</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>129189.368</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20652,9 +20657,11 @@
       <c r="E179" s="22"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
-      <c r="B180" s="52"/>
+      <c r="B180" s="52" t="s">
+        <v>268</v>
+      </c>
       <c r="C180" s="53">
-        <v>85000</v>
+        <v>120000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20663,7 +20670,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20673,11 +20680,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>85000</v>
+        <v>120000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20727,12 +20734,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="N11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
@@ -830,9 +830,6 @@
     <t>Z18</t>
   </si>
   <si>
-    <t>City Bank</t>
-  </si>
-  <si>
     <t>Z25</t>
   </si>
   <si>
@@ -938,7 +935,10 @@
     <t>B62</t>
   </si>
   <si>
-    <t>Prithibi Corporation</t>
+    <t xml:space="preserve">Brac </t>
+  </si>
+  <si>
+    <t>Hell Rajshahi</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G182" sqref="F181:G182"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44577</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3016,19 +3016,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
       <c r="C20" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>36888</v>
+        <v>92220</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -3089,19 +3089,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>40</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>42783.6</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>250</v>
@@ -3882,7 +3880,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -5048,19 +5046,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>20</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>23395.72</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>250</v>
@@ -5183,7 +5179,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5583,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6412,7 +6408,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6543,7 +6539,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -7327,7 +7323,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
@@ -7338,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8823,7 +8819,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -9146,7 +9142,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9208,7 +9204,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>229</v>
       </c>
@@ -9272,7 +9268,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9336,7 +9332,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9398,7 +9394,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9460,7 +9456,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -10369,19 +10365,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>265</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>250</v>
@@ -11681,7 +11675,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
@@ -11812,7 +11806,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12062,7 +12056,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12124,7 +12118,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A103" s="42" t="s">
         <v>266</v>
       </c>
@@ -12245,7 +12239,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -14205,7 +14199,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -18939,7 +18933,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19070,7 +19064,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19199,7 +19193,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19210,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19330,7 +19324,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19341,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19472,7 +19466,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19592,7 +19586,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19723,7 +19717,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -19854,7 +19848,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19985,7 +19979,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20116,7 +20110,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20127,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20247,7 +20241,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20383,11 +20377,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C20:C173)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D20:D173)</f>
-        <v>129189.368</v>
+        <v>92220</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20658,10 +20652,10 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="C180" s="53">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20670,7 +20664,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20680,11 +20674,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20734,12 +20728,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="N11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
@@ -938,7 +938,7 @@
     <t xml:space="preserve">Brac </t>
   </si>
   <si>
-    <t>Hell Rajshahi</t>
+    <t>Hello Rajshahi</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
+      <selection pane="bottomRight" activeCell="G183" sqref="G183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44578</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3016,7 +3016,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>278</v>
       </c>
@@ -3024,11 +3024,11 @@
         <v>922.2</v>
       </c>
       <c r="C20" s="17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>92220</v>
+        <v>110664</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -3616,17 +3616,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>254</v>
       </c>
       <c r="B26" s="28">
-        <v>1069.5899999999999</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>1001.5</v>
+      </c>
+      <c r="C26" s="17">
+        <v>302</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>302453</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>250</v>
@@ -4915,17 +4917,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>210</v>
       </c>
       <c r="B37" s="28">
-        <v>1178.8</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>1148.8</v>
+      </c>
+      <c r="C37" s="17">
+        <v>45</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51696</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>250</v>
@@ -9204,7 +9208,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>229</v>
       </c>
@@ -9268,7 +9272,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9332,7 +9336,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9394,7 +9398,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9456,7 +9460,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11283,7 +11287,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
         <v>226</v>
       </c>
@@ -11347,7 +11351,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -12118,7 +12122,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>266</v>
       </c>
@@ -15562,17 +15566,19 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A132" s="42" t="s">
         <v>258</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>20</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>250</v>
@@ -20377,11 +20383,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C20:C173)</f>
-        <v>100</v>
+        <v>487</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D20:D173)</f>
-        <v>92220</v>
+        <v>488973.2</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20654,9 +20660,7 @@
       <c r="B180" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="C180" s="53">
-        <v>200000</v>
-      </c>
+      <c r="C180" s="53"/>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>133</v>
@@ -20678,7 +20682,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -909,9 +909,6 @@
   </si>
   <si>
     <t>L44</t>
-  </si>
-  <si>
-    <t>Black &amp; Blue</t>
   </si>
   <si>
     <t>L33</t>
@@ -1942,7 +1939,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G183" sqref="G183"/>
+      <selection pane="bottomRight" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1968,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="40" t="s">
@@ -1979,7 +1976,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44585</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2071,17 +2068,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70567.600000000006</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>250</v>
@@ -2773,7 +2772,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
@@ -3002,7 +3001,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3016,19 +3015,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>120</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>110664</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -3616,19 +3613,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>254</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17">
-        <v>302</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>302453</v>
+        <v>0</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>250</v>
@@ -4917,19 +4912,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>210</v>
       </c>
       <c r="B37" s="28">
         <v>1148.8</v>
       </c>
-      <c r="C37" s="17">
-        <v>45</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>51696</v>
+        <v>0</v>
       </c>
       <c r="E37" s="18" t="s">
         <v>250</v>
@@ -7325,20 +7318,22 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A56" s="46" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
+      <c r="C56" s="48">
+        <v>20</v>
+      </c>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>295</v>
+        <v>94123.6</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -9208,7 +9203,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>229</v>
       </c>
@@ -9272,7 +9267,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9336,7 +9331,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9398,7 +9393,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9460,7 +9455,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11287,7 +11282,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>226</v>
       </c>
@@ -11351,7 +11346,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -11679,7 +11674,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
@@ -15566,19 +15561,17 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
         <v>258</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>20</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>250</v>
@@ -18939,7 +18932,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -20382,12 +20375,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>487</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>30</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>488973.2</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>164691.20000000001</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20658,9 +20651,11 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="C180" s="53"/>
+        <v>302</v>
+      </c>
+      <c r="C180" s="53">
+        <v>200000</v>
+      </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>133</v>
@@ -20668,7 +20663,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20682,7 +20677,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20732,12 +20727,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="N11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Others.xlsx
@@ -935,7 +935,7 @@
     <t xml:space="preserve">Brac </t>
   </si>
   <si>
-    <t>Hello Rajshahi</t>
+    <t>Prithibi Corporation</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1939,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E186" sqref="E186"/>
+      <selection pane="bottomRight" activeCell="H181" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44601</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2068,19 +2068,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>70567.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>250</v>
@@ -3015,17 +3013,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>40</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36888</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -3086,17 +3086,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>20</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21391.8</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>250</v>
@@ -7318,19 +7320,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48">
-        <v>20</v>
-      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>94123.6</v>
+        <v>0</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>250</v>
@@ -9203,7 +9203,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>229</v>
       </c>
@@ -9267,7 +9267,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -10296,17 +10296,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A86" s="43" t="s">
         <v>255</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>250</v>
@@ -20376,11 +20378,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C6:C173)</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D6:D173)</f>
-        <v>164691.20000000001</v>
+        <v>83619.990000000005</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20654,7 +20656,7 @@
         <v>302</v>
       </c>
       <c r="C180" s="53">
-        <v>200000</v>
+        <v>85000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20677,7 +20679,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>85000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
